--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T01:19:57+00:00</t>
+    <t>2021-11-16T04:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T04:51:36+00:00</t>
+    <t>2021-11-17T13:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T13:47:01+00:00</t>
+    <t>2021-11-18T22:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T22:04:47+00:00</t>
+    <t>2021-11-19T00:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:04:47+00:00</t>
+    <t>2021-11-19T00:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:13:18+00:00</t>
+    <t>2021-11-19T18:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:00:23+00:00</t>
+    <t>2021-11-19T18:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:02:16+00:00</t>
+    <t>2021-11-19T21:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T21:14:24+00:00</t>
+    <t>2021-11-22T14:07:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:07:32+00:00</t>
+    <t>2021-11-22T14:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:10:59+00:00</t>
+    <t>2021-11-23T21:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T21:25:23+00:00</t>
+    <t>2021-11-24T19:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T19:02:36+00:00</t>
+    <t>2021-11-24T22:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T22:31:44+00:00</t>
+    <t>2021-11-30T21:05:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T21:05:25+00:00</t>
+    <t>2021-12-08T16:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T16:36:19+00:00</t>
+    <t>2021-12-14T20:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T20:47:31+00:00</t>
+    <t>2022-03-11T19:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:19:27+00:00</t>
+    <t>2022-03-11T19:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:55:52+00:00</t>
+    <t>2022-04-11T17:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:12:20+00:00</t>
+    <t>2022-04-12T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="147">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:10:33+00:00</t>
+    <t>2022-05-18T17:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -324,13 +324,7 @@
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
+    <t>Extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -352,137 +346,131 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.extension.value[x]</t>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>sequencerId</t>
+  </si>
+  <si>
+    <t>Sequencer Id</t>
+  </si>
+  <si>
+    <t>runName</t>
+  </si>
+  <si>
+    <t>Run name</t>
+  </si>
+  <si>
+    <t>runDate</t>
+  </si>
+  <si>
+    <t>Run date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>valueDateTime</t>
+  </si>
+  <si>
+    <t>runAlias</t>
+  </si>
+  <si>
+    <t>Run alias</t>
+  </si>
+  <si>
+    <t>flowCellId</t>
+  </si>
+  <si>
+    <t>Flow cell id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>valueInteger</t>
+  </si>
+  <si>
+    <t>isPairedEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t>fragmentSize</t>
+  </si>
+  <si>
+    <t>Fragment Size</t>
+  </si>
+  <si>
+    <t>experimentalStrategy</t>
+  </si>
+  <si>
+    <t>Experimental Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>valueCoding</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Experimental strategy</t>
+  </si>
+  <si>
+    <t>http://fhir.cqgc.ferlab.bio/ValueSet/experimental-strategy</t>
+  </si>
+  <si>
+    <t>labAliquotId</t>
+  </si>
+  <si>
+    <t>captureKit</t>
+  </si>
+  <si>
+    <t>Capture Kit</t>
+  </si>
+  <si>
+    <t>baitDefinition</t>
+  </si>
+  <si>
+    <t>Bait Definition</t>
   </si>
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t>sequencerId</t>
-  </si>
-  <si>
-    <t>Sequencer Id</t>
-  </si>
-  <si>
-    <t>runName</t>
-  </si>
-  <si>
-    <t>Run name</t>
-  </si>
-  <si>
-    <t>runDate</t>
-  </si>
-  <si>
-    <t>Run date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>valueDateTime</t>
-  </si>
-  <si>
-    <t>runAlias</t>
-  </si>
-  <si>
-    <t>Run alias</t>
-  </si>
-  <si>
-    <t>flowCellId</t>
-  </si>
-  <si>
-    <t>Flow cell id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>valueInteger</t>
-  </si>
-  <si>
-    <t>isPairedEnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>valueBoolean</t>
-  </si>
-  <si>
-    <t>fragmentSize</t>
-  </si>
-  <si>
-    <t>Fragment Size</t>
-  </si>
-  <si>
-    <t>experimentalStrategy</t>
-  </si>
-  <si>
-    <t>Experimental Strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Experimental strategy</t>
-  </si>
-  <si>
-    <t>http://fhir.cqgc.ferlab.bio/ValueSet/experimental-strategy</t>
-  </si>
-  <si>
-    <t>labAliquotId</t>
-  </si>
-  <si>
-    <t>captureKit</t>
-  </si>
-  <si>
-    <t>Capture Kit</t>
-  </si>
-  <si>
-    <t>baitDefinition</t>
-  </si>
-  <si>
-    <t>Bait Definition</t>
   </si>
 </sst>
 </file>
@@ -800,7 +788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ126"/>
+  <dimension ref="A1:AJ78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -809,7 +797,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1573,7 +1561,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>79</v>
@@ -1588,22 +1576,24 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>72</v>
@@ -1645,10 +1635,10 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1660,23 +1650,23 @@
         <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1688,17 +1678,15 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>72</v>
@@ -1735,41 +1723,41 @@
         <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
       </c>
@@ -1790,17 +1778,15 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -1849,10 +1835,10 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -1861,17 +1847,19 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>72</v>
       </c>
@@ -1883,7 +1871,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>72</v>
@@ -1892,13 +1880,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1949,27 +1937,27 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1977,7 +1965,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -1992,24 +1980,22 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>72</v>
@@ -2051,10 +2037,10 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2066,23 +2052,23 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2094,15 +2080,17 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>72</v>
@@ -2139,41 +2127,41 @@
         <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>72</v>
       </c>
@@ -2194,22 +2182,24 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>72</v>
@@ -2251,10 +2241,10 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -2263,31 +2253,29 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2296,13 +2284,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2341,47 +2329,47 @@
         <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>79</v>
@@ -2399,10 +2387,10 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2453,7 +2441,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -2465,29 +2453,31 @@
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="C17" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2499,14 +2489,12 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>72</v>
@@ -2543,16 +2531,16 @@
         <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>94</v>
@@ -2570,12 +2558,12 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2675,7 +2663,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2777,7 +2765,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2800,16 +2788,16 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2817,7 +2805,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>72</v>
@@ -2859,7 +2847,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -2874,12 +2862,12 @@
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2887,7 +2875,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>79</v>
@@ -2902,13 +2890,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2947,41 +2935,41 @@
         <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AJ21" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>72</v>
       </c>
@@ -3002,24 +2990,22 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>72</v>
@@ -3061,10 +3047,10 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3073,29 +3059,31 @@
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3104,13 +3092,13 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3149,47 +3137,47 @@
         <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>79</v>
@@ -3207,10 +3195,10 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3261,7 +3249,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -3273,31 +3261,29 @@
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3309,12 +3295,14 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -3351,16 +3339,16 @@
         <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>94</v>
@@ -3378,12 +3366,12 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3391,7 +3379,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>79</v>
@@ -3406,22 +3394,24 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>72</v>
@@ -3463,10 +3453,10 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -3478,23 +3468,23 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -3506,17 +3496,15 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>72</v>
@@ -3553,47 +3541,47 @@
         <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>79</v>
@@ -3608,13 +3596,13 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3665,7 +3653,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -3677,29 +3665,31 @@
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="C29" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -3711,14 +3701,12 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>72</v>
@@ -3755,16 +3743,16 @@
         <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>94</v>
@@ -3782,12 +3770,12 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3795,7 +3783,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>79</v>
@@ -3810,17 +3798,15 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>72</v>
@@ -3869,10 +3855,10 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -3884,23 +3870,23 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -3912,15 +3898,17 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>72</v>
@@ -3957,39 +3945,39 @@
         <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4012,16 +4000,16 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4029,7 +4017,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>72</v>
@@ -4071,7 +4059,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -4086,12 +4074,12 @@
         <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4117,10 +4105,10 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4159,40 +4147,40 @@
         <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI33" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AJ33" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>72</v>
@@ -4217,10 +4205,10 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4271,22 +4259,22 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AJ34" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -4294,7 +4282,7 @@
         <v>85</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>72</v>
@@ -4319,10 +4307,10 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4603,7 +4591,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>79</v>
@@ -4618,22 +4606,24 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>72</v>
@@ -4675,10 +4665,10 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -4690,23 +4680,23 @@
         <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -4718,17 +4708,15 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>72</v>
@@ -4765,41 +4753,41 @@
         <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>72</v>
       </c>
@@ -4820,17 +4808,15 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -4879,10 +4865,10 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -4891,17 +4877,19 @@
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>72</v>
       </c>
@@ -4913,7 +4901,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -4922,13 +4910,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -4979,27 +4967,27 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5007,7 +4995,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>79</v>
@@ -5022,24 +5010,22 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>72</v>
@@ -5081,10 +5067,10 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -5096,23 +5082,23 @@
         <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -5124,15 +5110,17 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -5169,41 +5157,41 @@
         <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>72</v>
       </c>
@@ -5224,22 +5212,24 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>72</v>
@@ -5281,10 +5271,10 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -5293,31 +5283,29 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5326,13 +5314,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5371,47 +5359,47 @@
         <v>72</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>79</v>
@@ -5426,13 +5414,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5483,7 +5471,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -5495,29 +5483,31 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="C47" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>72</v>
@@ -5529,14 +5519,12 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>72</v>
@@ -5573,16 +5561,16 @@
         <v>72</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>94</v>
@@ -5600,12 +5588,12 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5705,7 +5693,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5807,7 +5795,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5830,16 +5818,16 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -5847,7 +5835,7 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>72</v>
@@ -5889,7 +5877,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -5904,12 +5892,12 @@
         <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5917,7 +5905,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>79</v>
@@ -5932,13 +5920,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -5977,41 +5965,41 @@
         <v>72</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AJ51" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>72</v>
       </c>
@@ -6032,24 +6020,22 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>72</v>
@@ -6091,10 +6077,10 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -6103,23 +6089,25 @@
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>79</v>
@@ -6134,13 +6122,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6179,47 +6167,47 @@
         <v>72</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>79</v>
@@ -6237,10 +6225,10 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6291,7 +6279,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -6303,31 +6291,29 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -6339,12 +6325,14 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>72</v>
@@ -6381,16 +6369,16 @@
         <v>72</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>94</v>
@@ -6408,12 +6396,12 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6421,7 +6409,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>79</v>
@@ -6436,22 +6424,24 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>72</v>
@@ -6493,10 +6483,10 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -6508,23 +6498,23 @@
         <v>72</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -6536,17 +6526,15 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -6583,47 +6571,47 @@
         <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="C58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>79</v>
@@ -6638,13 +6626,13 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6671,13 +6659,13 @@
         <v>72</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>72</v>
@@ -6695,7 +6683,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -6707,29 +6695,31 @@
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="C59" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
@@ -6741,14 +6731,12 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>72</v>
@@ -6785,16 +6773,16 @@
         <v>72</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>94</v>
@@ -6812,12 +6800,12 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6825,7 +6813,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>79</v>
@@ -6840,17 +6828,15 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>72</v>
@@ -6899,10 +6885,10 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -6914,23 +6900,23 @@
         <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>72</v>
@@ -6942,15 +6928,17 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>72</v>
@@ -6987,39 +6975,39 @@
         <v>72</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7042,16 +7030,16 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -7059,7 +7047,7 @@
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>72</v>
@@ -7101,7 +7089,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -7116,12 +7104,12 @@
         <v>72</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7144,13 +7132,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7189,40 +7177,40 @@
         <v>72</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AF63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AJ63" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>72</v>
@@ -7244,13 +7232,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7301,22 +7289,22 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AF64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AJ64" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
@@ -7324,7 +7312,7 @@
         <v>85</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>72</v>
@@ -7349,10 +7337,10 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7633,7 +7621,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>79</v>
@@ -7648,22 +7636,24 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>72</v>
@@ -7705,10 +7695,10 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -7720,23 +7710,23 @@
         <v>72</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>72</v>
@@ -7748,17 +7738,15 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>72</v>
@@ -7795,41 +7783,41 @@
         <v>72</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>72</v>
       </c>
@@ -7850,17 +7838,15 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>72</v>
@@ -7909,10 +7895,10 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -7921,17 +7907,19 @@
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>72</v>
       </c>
@@ -7943,7 +7931,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>72</v>
@@ -7952,13 +7940,13 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8009,27 +7997,27 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8037,7 +8025,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>79</v>
@@ -8052,24 +8040,22 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>72</v>
@@ -8111,10 +8097,10 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -8126,23 +8112,23 @@
         <v>72</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>72</v>
@@ -8154,15 +8140,17 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>72</v>
@@ -8199,41 +8187,41 @@
         <v>72</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB73" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="AC73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>72</v>
       </c>
@@ -8254,22 +8242,24 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>72</v>
@@ -8311,10 +8301,10 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -8323,31 +8313,29 @@
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>72</v>
@@ -8356,13 +8344,13 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8401,47 +8389,47 @@
         <v>72</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>79</v>
@@ -8459,10 +8447,10 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8513,7 +8501,7 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
@@ -8525,26 +8513,26 @@
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>72</v>
@@ -8556,16 +8544,16 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -8573,7 +8561,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>72</v>
@@ -8603,39 +8591,39 @@
         <v>72</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8646,7 +8634,7 @@
         <v>73</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>72</v>
@@ -8658,13 +8646,13 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -8715,7 +8703,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -8727,4862 +8715,14 @@
         <v>72</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M80" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB83" s="2"/>
-      <c r="AC83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB93" s="2"/>
-      <c r="AC93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB103" s="2"/>
-      <c r="AC103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB113" s="2"/>
-      <c r="AC113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AB123" s="2"/>
-      <c r="AC123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ126">
+  <autoFilter ref="A1:AJ78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13592,7 +8732,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI125">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T17:38:26+00:00</t>
+    <t>2022-05-18T18:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:03:18+00:00</t>
+    <t>2022-05-18T18:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:24:05+00:00</t>
+    <t>2022-05-18T18:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:38:41+00:00</t>
+    <t>2022-05-18T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:56:15+00:00</t>
+    <t>2022-05-18T19:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:09:53+00:00</t>
+    <t>2022-05-18T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:16:13+00:00</t>
+    <t>2022-05-18T19:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:30:31+00:00</t>
+    <t>2022-05-18T19:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:33:24+00:00</t>
+    <t>2022-05-19T03:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:16:26+00:00</t>
+    <t>2022-05-19T05:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:06:22+00:00</t>
+    <t>2022-05-19T05:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:30:54+00:00</t>
+    <t>2022-07-20T15:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -800,39 +800,39 @@
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.8671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:49:15+00:00</t>
+    <t>2022-07-20T15:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:55:58+00:00</t>
+    <t>2022-07-26T14:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T14:00:32+00:00</t>
+    <t>2022-11-10T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,63 +250,63 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>platform</t>
@@ -1039,7 +1039,7 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1058,25 +1058,25 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1127,31 +1127,31 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1170,16 +1170,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1217,19 +1217,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1241,15 +1241,15 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>95</v>
@@ -1262,7 +1262,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>96</v>
@@ -1274,7 +1274,7 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>97</v>
@@ -1331,7 +1331,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -1343,7 +1343,7 @@
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -1362,25 +1362,25 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1431,22 +1431,22 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1474,16 +1474,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1521,19 +1521,19 @@
         <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
@@ -1545,10 +1545,10 @@
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1561,10 +1561,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1638,10 +1638,10 @@
         <v>105</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1663,22 +1663,22 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>108</v>
@@ -1739,7 +1739,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1763,22 +1763,22 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>108</v>
@@ -1841,7 +1841,7 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>115</v>
@@ -1868,7 +1868,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>96</v>
@@ -1880,7 +1880,7 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>116</v>
@@ -1937,7 +1937,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -1949,7 +1949,7 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -1968,25 +1968,25 @@
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J12" t="s" s="2">
+      <c r="K12" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2037,22 +2037,22 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2080,16 +2080,16 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2127,19 +2127,19 @@
         <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD13" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s" s="2">
+      <c r="AE13" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2151,10 +2151,10 @@
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -2167,10 +2167,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2244,10 +2244,10 @@
         <v>105</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2269,22 +2269,22 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>108</v>
@@ -2345,7 +2345,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
@@ -2369,22 +2369,22 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>108</v>
@@ -2447,7 +2447,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>117</v>
@@ -2474,7 +2474,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>96</v>
@@ -2486,7 +2486,7 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>118</v>
@@ -2543,7 +2543,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -2555,7 +2555,7 @@
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>72</v>
@@ -2574,25 +2574,25 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J18" t="s" s="2">
+      <c r="K18" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2643,22 +2643,22 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2686,16 +2686,16 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2733,19 +2733,19 @@
         <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB19" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AC19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -2757,10 +2757,10 @@
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -2773,10 +2773,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -2850,10 +2850,10 @@
         <v>105</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
@@ -2875,22 +2875,22 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>108</v>
@@ -2951,7 +2951,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
@@ -2975,22 +2975,22 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>108</v>
@@ -3053,7 +3053,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>119</v>
@@ -3080,7 +3080,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>96</v>
@@ -3092,7 +3092,7 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>120</v>
@@ -3149,7 +3149,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3161,7 +3161,7 @@
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>72</v>
@@ -3180,25 +3180,25 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J24" t="s" s="2">
+      <c r="K24" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3249,22 +3249,22 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3292,16 +3292,16 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3339,19 +3339,19 @@
         <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB25" t="s" s="2">
+      <c r="AC25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD25" t="s" s="2">
+      <c r="AE25" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -3363,10 +3363,10 @@
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -3379,10 +3379,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -3456,10 +3456,10 @@
         <v>105</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
@@ -3481,10 +3481,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -3557,7 +3557,7 @@
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
@@ -3581,10 +3581,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -3659,7 +3659,7 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3686,7 +3686,7 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>96</v>
@@ -3698,7 +3698,7 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>124</v>
@@ -3755,7 +3755,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -3767,7 +3767,7 @@
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
@@ -3786,25 +3786,25 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J30" t="s" s="2">
+      <c r="K30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3855,22 +3855,22 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -3898,16 +3898,16 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -3945,19 +3945,19 @@
         <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD31" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD31" t="s" s="2">
+      <c r="AE31" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -3969,10 +3969,10 @@
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -3985,10 +3985,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -4062,10 +4062,10 @@
         <v>105</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
@@ -4087,22 +4087,22 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>108</v>
@@ -4163,7 +4163,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
@@ -4187,22 +4187,22 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>108</v>
@@ -4265,7 +4265,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>125</v>
@@ -4292,7 +4292,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>96</v>
@@ -4304,7 +4304,7 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>126</v>
@@ -4361,7 +4361,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -4373,7 +4373,7 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
@@ -4392,25 +4392,25 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J36" t="s" s="2">
+      <c r="K36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4461,22 +4461,22 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -4504,16 +4504,16 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -4551,19 +4551,19 @@
         <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB37" t="s" s="2">
+      <c r="AC37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD37" t="s" s="2">
+      <c r="AE37" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -4575,10 +4575,10 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -4591,10 +4591,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -4668,10 +4668,10 @@
         <v>105</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -4693,10 +4693,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -4769,7 +4769,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -4793,10 +4793,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -4871,7 +4871,7 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>129</v>
@@ -4898,7 +4898,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>96</v>
@@ -4910,7 +4910,7 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>129</v>
@@ -4967,7 +4967,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -4979,7 +4979,7 @@
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
@@ -4998,25 +4998,25 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J42" t="s" s="2">
+      <c r="K42" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5067,22 +5067,22 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5110,16 +5110,16 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5157,19 +5157,19 @@
         <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB43" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB43" t="s" s="2">
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD43" t="s" s="2">
+      <c r="AE43" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5181,10 +5181,10 @@
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -5197,10 +5197,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -5274,10 +5274,10 @@
         <v>105</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
@@ -5299,10 +5299,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
@@ -5375,7 +5375,7 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
@@ -5399,10 +5399,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>72</v>
@@ -5477,7 +5477,7 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>132</v>
@@ -5504,7 +5504,7 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>96</v>
@@ -5516,7 +5516,7 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>133</v>
@@ -5573,7 +5573,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -5585,7 +5585,7 @@
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
@@ -5604,25 +5604,25 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J48" t="s" s="2">
+      <c r="K48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5673,22 +5673,22 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -5716,16 +5716,16 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -5763,19 +5763,19 @@
         <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB49" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB49" t="s" s="2">
+      <c r="AC49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD49" t="s" s="2">
+      <c r="AE49" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -5787,10 +5787,10 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -5803,10 +5803,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -5880,10 +5880,10 @@
         <v>105</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
@@ -5905,10 +5905,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -5981,7 +5981,7 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
@@ -6005,10 +6005,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -6083,7 +6083,7 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>134</v>
@@ -6110,7 +6110,7 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
@@ -6122,7 +6122,7 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>135</v>
@@ -6179,7 +6179,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -6191,7 +6191,7 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
@@ -6210,25 +6210,25 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J54" t="s" s="2">
+      <c r="K54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6279,22 +6279,22 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -6322,16 +6322,16 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -6369,19 +6369,19 @@
         <v>72</v>
       </c>
       <c r="AA55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB55" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB55" t="s" s="2">
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD55" t="s" s="2">
+      <c r="AE55" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -6393,10 +6393,10 @@
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" hidden="true">
@@ -6409,10 +6409,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -6486,10 +6486,10 @@
         <v>105</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
@@ -6511,10 +6511,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -6587,7 +6587,7 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
@@ -6611,10 +6611,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>72</v>
@@ -6689,7 +6689,7 @@
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>141</v>
@@ -6716,7 +6716,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>96</v>
@@ -6728,7 +6728,7 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>141</v>
@@ -6785,7 +6785,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -6797,7 +6797,7 @@
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>72</v>
@@ -6816,25 +6816,25 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J60" t="s" s="2">
+      <c r="K60" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6885,22 +6885,22 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -6928,16 +6928,16 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -6975,19 +6975,19 @@
         <v>72</v>
       </c>
       <c r="AA61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB61" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB61" t="s" s="2">
+      <c r="AC61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD61" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD61" t="s" s="2">
+      <c r="AE61" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -6999,10 +6999,10 @@
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" hidden="true">
@@ -7015,10 +7015,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>72</v>
@@ -7092,10 +7092,10 @@
         <v>105</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>72</v>
@@ -7117,22 +7117,22 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>108</v>
@@ -7193,7 +7193,7 @@
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>72</v>
@@ -7217,22 +7217,22 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>108</v>
@@ -7295,7 +7295,7 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>72</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>142</v>
@@ -7322,7 +7322,7 @@
         <v>73</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>96</v>
@@ -7334,7 +7334,7 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>143</v>
@@ -7391,7 +7391,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -7403,7 +7403,7 @@
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>72</v>
@@ -7422,25 +7422,25 @@
         <v>73</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J66" t="s" s="2">
+      <c r="K66" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7491,22 +7491,22 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -7534,16 +7534,16 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -7581,19 +7581,19 @@
         <v>72</v>
       </c>
       <c r="AA67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB67" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB67" t="s" s="2">
+      <c r="AC67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD67" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD67" t="s" s="2">
+      <c r="AE67" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -7605,10 +7605,10 @@
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -7621,10 +7621,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -7698,10 +7698,10 @@
         <v>105</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
@@ -7723,22 +7723,22 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>108</v>
@@ -7799,7 +7799,7 @@
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
@@ -7823,22 +7823,22 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>108</v>
@@ -7901,7 +7901,7 @@
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>144</v>
@@ -7928,7 +7928,7 @@
         <v>73</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>96</v>
@@ -7940,7 +7940,7 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>145</v>
@@ -7997,7 +7997,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -8009,7 +8009,7 @@
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>72</v>
@@ -8028,25 +8028,25 @@
         <v>73</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J72" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J72" t="s" s="2">
+      <c r="K72" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8097,22 +8097,22 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="73" hidden="true">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8140,16 +8140,16 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8187,19 +8187,19 @@
         <v>72</v>
       </c>
       <c r="AA73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB73" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB73" t="s" s="2">
+      <c r="AC73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD73" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD73" t="s" s="2">
+      <c r="AE73" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -8211,10 +8211,10 @@
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" hidden="true">
@@ -8227,10 +8227,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>72</v>
@@ -8304,10 +8304,10 @@
         <v>105</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>72</v>
@@ -8329,22 +8329,22 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J75" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>108</v>
@@ -8405,7 +8405,7 @@
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>72</v>
@@ -8429,22 +8429,22 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J76" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>108</v>
@@ -8507,7 +8507,7 @@
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
@@ -8529,10 +8529,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>72</v>
@@ -8606,10 +8606,10 @@
         <v>105</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
@@ -8709,7 +8709,7 @@
         <v>73</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>72</v>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T16:33:20+00:00</t>
+    <t>2022-11-13T16:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T16:06:14+00:00</t>
+    <t>2022-11-16T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:22:04+00:00</t>
+    <t>2022-11-16T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:33:27+00:00</t>
+    <t>2022-12-09T19:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T19:20:55+00:00</t>
+    <t>2022-12-09T21:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:13:19+00:00</t>
+    <t>2023-01-27T17:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T17:12:17+00:00</t>
+    <t>2023-01-30T21:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:30:05+00:00</t>
+    <t>2023-02-09T16:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T16:19:35+00:00</t>
+    <t>2023-02-14T19:15:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T19:15:12+00:00</t>
+    <t>2023-02-20T18:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:51:53+00:00</t>
+    <t>2023-02-20T18:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:59:33+00:00</t>
+    <t>2023-02-20T19:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T19:32:51+00:00</t>
+    <t>2023-02-21T11:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:59:56+00:00</t>
+    <t>2023-02-21T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="228">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T12:43:59+00:00</t>
+    <t>2023-02-28T17:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -690,6 +690,27 @@
   </si>
   <si>
     <t>Extension.extension:baitDefinition.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:protocol.value[x]:valueString</t>
   </si>
   <si>
     <t>base64Binary
@@ -1011,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK78"/>
+  <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8972,24 +8993,26 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>73</v>
@@ -8998,24 +9021,22 @@
         <v>73</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>73</v>
@@ -9057,30 +9078,30 @@
         <v>73</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9091,7 +9112,7 @@
         <v>74</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>73</v>
@@ -9103,13 +9124,13 @@
         <v>73</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9160,26 +9181,650 @@
         <v>73</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AC81" s="2"/>
+      <c r="AD81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF81" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
+      <c r="AG81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AK81" t="s" s="2">
         <v>112</v>
       </c>
     </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK78">
+  <autoFilter ref="A1:AK84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9189,7 +9834,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T17:04:12+00:00</t>
+    <t>2023-03-09T16:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:02:20+00:00</t>
+    <t>2023-03-09T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:05:10+00:00</t>
+    <t>2023-03-09T21:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T21:27:23+00:00</t>
+    <t>2023-03-10T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:30:38+00:00</t>
+    <t>2023-03-10T16:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>80</v>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:37:58+00:00</t>
+    <t>2023-03-10T16:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:43:52+00:00</t>
+    <t>2023-03-16T01:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:14:24+00:00</t>
+    <t>2023-03-16T01:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:23:31+00:00</t>
+    <t>2023-03-21T11:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T11:43:18+00:00</t>
+    <t>2023-04-04T14:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T14:29:08+00:00</t>
+    <t>2023-05-30T18:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:01:19+00:00</t>
+    <t>2023-08-02T16:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:54:26+00:00</t>
+    <t>2023-10-18T17:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -199,10 +203,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.extension:platform</t>
@@ -1063,7 +1063,7 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>36</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1097,13 +1097,13 @@
         <v>36</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1154,13 +1154,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1169,19 +1169,19 @@
         <v>36</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1200,16 +1200,16 @@
         <v>36</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1247,19 +1247,19 @@
         <v>36</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
@@ -1271,10 +1271,10 @@
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -1282,7 +1282,7 @@
         <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>61</v>
@@ -1295,7 +1295,7 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>62</v>
@@ -1307,7 +1307,7 @@
         <v>36</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>63</v>
@@ -1364,7 +1364,7 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
@@ -1376,7 +1376,7 @@
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1398,7 +1398,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1410,13 +1410,13 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1467,13 +1467,13 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
@@ -1482,7 +1482,7 @@
         <v>36</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1513,16 +1513,16 @@
         <v>36</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1560,19 +1560,19 @@
         <v>36</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
@@ -1584,10 +1584,10 @@
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1603,10 +1603,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>36</v>
@@ -1680,10 +1680,10 @@
         <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>36</v>
@@ -1708,10 +1708,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>36</v>
@@ -1723,7 +1723,7 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>78</v>
@@ -1784,7 +1784,7 @@
         <v>37</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>36</v>
@@ -1811,10 +1811,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>36</v>
@@ -1826,7 +1826,7 @@
         <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>78</v>
@@ -1889,7 +1889,7 @@
         <v>37</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>36</v>
@@ -1906,7 +1906,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>87</v>
@@ -1919,7 +1919,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>62</v>
@@ -1931,7 +1931,7 @@
         <v>36</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>88</v>
@@ -1988,7 +1988,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2000,7 +2000,7 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>36</v>
@@ -2022,7 +2022,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2034,13 +2034,13 @@
         <v>36</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2091,13 +2091,13 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>36</v>
@@ -2106,7 +2106,7 @@
         <v>36</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2137,16 +2137,16 @@
         <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2184,19 +2184,19 @@
         <v>36</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -2208,10 +2208,10 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -2227,10 +2227,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>36</v>
@@ -2304,10 +2304,10 @@
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>36</v>
@@ -2332,10 +2332,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>36</v>
@@ -2347,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>78</v>
@@ -2408,7 +2408,7 @@
         <v>37</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>36</v>
@@ -2435,10 +2435,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -2450,7 +2450,7 @@
         <v>36</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>78</v>
@@ -2513,7 +2513,7 @@
         <v>37</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
@@ -2530,7 +2530,7 @@
         <v>94</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>95</v>
@@ -2543,7 +2543,7 @@
         <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>62</v>
@@ -2555,7 +2555,7 @@
         <v>36</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>96</v>
@@ -2612,7 +2612,7 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -2624,7 +2624,7 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>36</v>
@@ -2646,7 +2646,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -2658,13 +2658,13 @@
         <v>36</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2715,13 +2715,13 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
@@ -2730,7 +2730,7 @@
         <v>36</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -2761,16 +2761,16 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2808,19 +2808,19 @@
         <v>36</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -2832,10 +2832,10 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -2851,10 +2851,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>36</v>
@@ -2928,10 +2928,10 @@
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>36</v>
@@ -2956,10 +2956,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>36</v>
@@ -2971,7 +2971,7 @@
         <v>36</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>78</v>
@@ -3032,7 +3032,7 @@
         <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>36</v>
@@ -3059,10 +3059,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>36</v>
@@ -3074,7 +3074,7 @@
         <v>36</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>78</v>
@@ -3137,7 +3137,7 @@
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
@@ -3154,7 +3154,7 @@
         <v>102</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>103</v>
@@ -3167,7 +3167,7 @@
         <v>37</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>62</v>
@@ -3179,7 +3179,7 @@
         <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>104</v>
@@ -3236,7 +3236,7 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -3248,7 +3248,7 @@
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>36</v>
@@ -3270,7 +3270,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -3282,13 +3282,13 @@
         <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3339,13 +3339,13 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>36</v>
@@ -3354,7 +3354,7 @@
         <v>36</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3385,16 +3385,16 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3432,19 +3432,19 @@
         <v>36</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
@@ -3456,10 +3456,10 @@
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -3475,10 +3475,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>36</v>
@@ -3552,10 +3552,10 @@
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>36</v>
@@ -3580,10 +3580,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>36</v>
@@ -3656,7 +3656,7 @@
         <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>36</v>
@@ -3683,10 +3683,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>36</v>
@@ -3761,7 +3761,7 @@
         <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>36</v>
@@ -3778,7 +3778,7 @@
         <v>112</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>113</v>
@@ -3791,7 +3791,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>62</v>
@@ -3803,7 +3803,7 @@
         <v>36</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>114</v>
@@ -3860,7 +3860,7 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
@@ -3872,7 +3872,7 @@
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>36</v>
@@ -3894,7 +3894,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>36</v>
@@ -3906,13 +3906,13 @@
         <v>36</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3963,13 +3963,13 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>36</v>
@@ -3978,7 +3978,7 @@
         <v>36</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4009,16 +4009,16 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4056,19 +4056,19 @@
         <v>36</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
@@ -4080,10 +4080,10 @@
         <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -4099,10 +4099,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>36</v>
@@ -4176,10 +4176,10 @@
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>36</v>
@@ -4204,10 +4204,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>36</v>
@@ -4219,7 +4219,7 @@
         <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>78</v>
@@ -4280,7 +4280,7 @@
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>36</v>
@@ -4307,10 +4307,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>36</v>
@@ -4322,7 +4322,7 @@
         <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>78</v>
@@ -4385,7 +4385,7 @@
         <v>37</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>36</v>
@@ -4402,7 +4402,7 @@
         <v>120</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>121</v>
@@ -4415,7 +4415,7 @@
         <v>37</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>62</v>
@@ -4427,7 +4427,7 @@
         <v>36</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>122</v>
@@ -4484,7 +4484,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -4496,7 +4496,7 @@
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>36</v>
@@ -4518,7 +4518,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>36</v>
@@ -4530,13 +4530,13 @@
         <v>36</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4587,13 +4587,13 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
@@ -4602,7 +4602,7 @@
         <v>36</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -4633,16 +4633,16 @@
         <v>36</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -4680,19 +4680,19 @@
         <v>36</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
@@ -4704,10 +4704,10 @@
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -4723,10 +4723,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -4800,10 +4800,10 @@
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>36</v>
@@ -4828,10 +4828,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
@@ -4904,7 +4904,7 @@
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>36</v>
@@ -4931,10 +4931,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>36</v>
@@ -5009,7 +5009,7 @@
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>36</v>
@@ -5026,7 +5026,7 @@
         <v>130</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>131</v>
@@ -5039,7 +5039,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>62</v>
@@ -5051,7 +5051,7 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>131</v>
@@ -5108,7 +5108,7 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
@@ -5120,7 +5120,7 @@
         <v>36</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>36</v>
@@ -5142,7 +5142,7 @@
         <v>37</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>36</v>
@@ -5154,13 +5154,13 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5211,13 +5211,13 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>36</v>
@@ -5226,7 +5226,7 @@
         <v>36</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5257,16 +5257,16 @@
         <v>36</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5304,19 +5304,19 @@
         <v>36</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -5328,10 +5328,10 @@
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -5347,10 +5347,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>36</v>
@@ -5424,10 +5424,10 @@
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
@@ -5452,10 +5452,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>36</v>
@@ -5528,7 +5528,7 @@
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>36</v>
@@ -5555,10 +5555,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -5633,7 +5633,7 @@
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>36</v>
@@ -5650,7 +5650,7 @@
         <v>139</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>140</v>
@@ -5663,7 +5663,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>62</v>
@@ -5675,7 +5675,7 @@
         <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>141</v>
@@ -5732,7 +5732,7 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
@@ -5744,7 +5744,7 @@
         <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>36</v>
@@ -5766,7 +5766,7 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>36</v>
@@ -5778,13 +5778,13 @@
         <v>36</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5835,13 +5835,13 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>36</v>
@@ -5850,7 +5850,7 @@
         <v>36</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -5881,16 +5881,16 @@
         <v>36</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -5928,19 +5928,19 @@
         <v>36</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -5952,10 +5952,10 @@
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -5971,10 +5971,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>36</v>
@@ -6048,10 +6048,10 @@
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
@@ -6076,10 +6076,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>36</v>
@@ -6152,7 +6152,7 @@
         <v>37</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>36</v>
@@ -6179,10 +6179,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>36</v>
@@ -6257,7 +6257,7 @@
         <v>37</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>36</v>
@@ -6274,7 +6274,7 @@
         <v>147</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>148</v>
@@ -6287,7 +6287,7 @@
         <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>36</v>
@@ -6299,7 +6299,7 @@
         <v>36</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>149</v>
@@ -6356,7 +6356,7 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
@@ -6368,7 +6368,7 @@
         <v>36</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>36</v>
@@ -6390,7 +6390,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>36</v>
@@ -6402,13 +6402,13 @@
         <v>36</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6459,13 +6459,13 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>36</v>
@@ -6474,7 +6474,7 @@
         <v>36</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" hidden="true">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -6505,16 +6505,16 @@
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -6552,19 +6552,19 @@
         <v>36</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
@@ -6576,10 +6576,10 @@
         <v>36</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -6595,10 +6595,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>36</v>
@@ -6672,10 +6672,10 @@
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>36</v>
@@ -6700,10 +6700,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>36</v>
@@ -6776,7 +6776,7 @@
         <v>37</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>36</v>
@@ -6803,10 +6803,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>36</v>
@@ -6881,7 +6881,7 @@
         <v>37</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>36</v>
@@ -6898,7 +6898,7 @@
         <v>160</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>161</v>
@@ -6911,7 +6911,7 @@
         <v>37</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>62</v>
@@ -6923,7 +6923,7 @@
         <v>36</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>161</v>
@@ -6980,7 +6980,7 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
@@ -6992,7 +6992,7 @@
         <v>36</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>36</v>
@@ -7014,7 +7014,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>36</v>
@@ -7026,13 +7026,13 @@
         <v>36</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7083,13 +7083,13 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>36</v>
@@ -7098,7 +7098,7 @@
         <v>36</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -7129,16 +7129,16 @@
         <v>36</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -7176,19 +7176,19 @@
         <v>36</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
@@ -7200,10 +7200,10 @@
         <v>36</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -7219,10 +7219,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>36</v>
@@ -7296,10 +7296,10 @@
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>36</v>
@@ -7324,10 +7324,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>36</v>
@@ -7339,7 +7339,7 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>78</v>
@@ -7400,7 +7400,7 @@
         <v>37</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>36</v>
@@ -7427,10 +7427,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>36</v>
@@ -7442,7 +7442,7 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>78</v>
@@ -7505,7 +7505,7 @@
         <v>37</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>36</v>
@@ -7522,7 +7522,7 @@
         <v>167</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>168</v>
@@ -7535,7 +7535,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>62</v>
@@ -7547,7 +7547,7 @@
         <v>36</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>169</v>
@@ -7604,7 +7604,7 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
@@ -7616,7 +7616,7 @@
         <v>36</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>36</v>
@@ -7638,7 +7638,7 @@
         <v>37</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>36</v>
@@ -7650,13 +7650,13 @@
         <v>36</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -7707,13 +7707,13 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>36</v>
@@ -7722,7 +7722,7 @@
         <v>36</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -7753,16 +7753,16 @@
         <v>36</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -7800,19 +7800,19 @@
         <v>36</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
@@ -7824,10 +7824,10 @@
         <v>36</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -7843,10 +7843,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
@@ -7920,10 +7920,10 @@
         <v>74</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>36</v>
@@ -7948,10 +7948,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>36</v>
@@ -7963,7 +7963,7 @@
         <v>36</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>78</v>
@@ -8024,7 +8024,7 @@
         <v>37</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>36</v>
@@ -8051,10 +8051,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>36</v>
@@ -8066,7 +8066,7 @@
         <v>36</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>78</v>
@@ -8129,7 +8129,7 @@
         <v>37</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>36</v>
@@ -8146,7 +8146,7 @@
         <v>175</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>176</v>
@@ -8159,7 +8159,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>62</v>
@@ -8171,7 +8171,7 @@
         <v>36</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>177</v>
@@ -8228,7 +8228,7 @@
         <v>36</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
@@ -8240,7 +8240,7 @@
         <v>36</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>36</v>
@@ -8262,7 +8262,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>36</v>
@@ -8274,13 +8274,13 @@
         <v>36</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -8331,13 +8331,13 @@
         <v>36</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>36</v>
@@ -8346,7 +8346,7 @@
         <v>36</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" hidden="true">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -8377,16 +8377,16 @@
         <v>36</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -8424,19 +8424,19 @@
         <v>36</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
@@ -8448,10 +8448,10 @@
         <v>36</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" hidden="true">
@@ -8467,10 +8467,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>36</v>
@@ -8544,10 +8544,10 @@
         <v>74</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>36</v>
@@ -8572,10 +8572,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>36</v>
@@ -8587,7 +8587,7 @@
         <v>36</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>78</v>
@@ -8648,7 +8648,7 @@
         <v>37</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>36</v>
@@ -8675,10 +8675,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>36</v>
@@ -8690,7 +8690,7 @@
         <v>36</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>78</v>
@@ -8753,7 +8753,7 @@
         <v>37</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>36</v>
@@ -8770,7 +8770,7 @@
         <v>183</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>184</v>
@@ -8783,7 +8783,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>62</v>
@@ -8795,7 +8795,7 @@
         <v>36</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>184</v>
@@ -8852,7 +8852,7 @@
         <v>36</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
@@ -8864,7 +8864,7 @@
         <v>36</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>36</v>
@@ -8886,7 +8886,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>36</v>
@@ -8898,13 +8898,13 @@
         <v>36</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -8955,13 +8955,13 @@
         <v>36</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>36</v>
@@ -8970,7 +8970,7 @@
         <v>36</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" hidden="true">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -9001,16 +9001,16 @@
         <v>36</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -9048,19 +9048,19 @@
         <v>36</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
@@ -9072,10 +9072,10 @@
         <v>36</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -9091,10 +9091,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>36</v>
@@ -9168,10 +9168,10 @@
         <v>74</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>36</v>
@@ -9196,10 +9196,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>36</v>
@@ -9211,7 +9211,7 @@
         <v>36</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>78</v>
@@ -9272,7 +9272,7 @@
         <v>37</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>36</v>
@@ -9299,10 +9299,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>36</v>
@@ -9314,7 +9314,7 @@
         <v>36</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>78</v>
@@ -9377,7 +9377,7 @@
         <v>37</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>36</v>
@@ -9402,10 +9402,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>36</v>
@@ -9479,10 +9479,10 @@
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>36</v>
@@ -9585,7 +9585,7 @@
         <v>37</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>36</v>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sequencing-experiment.xlsx
+++ b/ig/StructureDefinition-sequencing-experiment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
